--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>vOicE</t>
+  </si>
+  <si>
+    <t>BOSS1</t>
+  </si>
+  <si>
+    <t>Chronosphere</t>
   </si>
   <si>
     <t>OPENING</t>
@@ -117,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,6 +138,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -139,44 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,62 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,17 +260,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,49 +290,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,19 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,109 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +481,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,6 +506,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,10 +542,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -528,26 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,15 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,145 +589,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1254,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1296,6 +1302,20 @@
         <v>31</v>
       </c>
       <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>saikai637</t>
+  </si>
+  <si>
+    <t>LAST_BOSS</t>
+  </si>
+  <si>
+    <t>EndOfLvateinn</t>
   </si>
 </sst>
 </file>
@@ -123,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -144,31 +150,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,25 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,15 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +237,14 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,31 +265,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,37 +296,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,133 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,50 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +537,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,16 +595,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,127 +613,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,10 +1089,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1260,7 +1266,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1317,6 +1323,20 @@
       </c>
       <c r="D16" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Bgm" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>BATTLE4</t>
   </si>
   <si>
-    <t>flamingo</t>
+    <t>osana</t>
   </si>
   <si>
     <t>BATTLE5</t>
@@ -129,8 +129,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -143,6 +143,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -157,38 +187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,49 +211,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,9 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,8 +256,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,31 +518,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +562,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -595,7 +595,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,7 +604,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,127 +613,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Bgm" sheetId="1" r:id="rId1"/>
@@ -130,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -143,6 +143,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -152,7 +221,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,82 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,19 +296,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,19 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,25 +440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,109 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,11 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,26 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +553,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +581,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,145 +595,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -130,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -151,7 +158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,48 +166,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,35 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -250,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,22 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +270,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,19 +296,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,163 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +487,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,17 +538,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,24 +579,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -563,30 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,145 +595,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Resources/Data/BGM.xlsx
+++ b/Assets/Resources/Data/BGM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>EndOfLvateinn</t>
+  </si>
+  <si>
+    <t>BATTLE6</t>
+  </si>
+  <si>
+    <t>hilink_code</t>
+  </si>
+  <si>
+    <t>BATTLE7</t>
+  </si>
+  <si>
+    <t>Kimera</t>
   </si>
 </sst>
 </file>
@@ -129,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,50 +152,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,8 +163,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -204,29 +208,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,16 +260,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,17 +293,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +499,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,24 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,6 +537,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,11 +593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,16 +607,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,127 +625,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1339,6 +1351,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
